--- a/proiect/ProiectFDBargaoanuBogdan.xlsx
+++ b/proiect/ProiectFDBargaoanuBogdan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\facultate\fiabilitate si diagnoza\fiabilitate-si-diagnoza\proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EBF5CE-F18C-4485-9070-7CEB6DA225E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558CDD3-4A30-4D2A-97C7-79BE3B3ABFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C0A6615-6D33-0742-B44C-E9D15E73AFBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -146,10 +146,16 @@
     <t>Set de teste T = {00000, 00001, 00010, 00011, 00100, 00101, 00110,00111,01000,01001,01010,01011,01101,01110,01111,10000,100010,10010,10011,10100,10101,10110,10111,11000,11001,11010,11011,11100,11101,11110,11111}</t>
   </si>
   <si>
-    <t>Teste esentiale = {00000,00001,00010,00011,00100,00101,00110,01000,01001,01010,01011,01100,01101,01110,11100,11101,11110,11111} 18</t>
+    <t>Nu sunt teste esentiale.</t>
   </si>
   <si>
-    <t>Set minim de teste = { 00000 - J0,Z1; 01000 - J0,Z1; 01011 - G1,J0,Z1; 1100 - F0,Z1}</t>
+    <t>Circuit in logisim:</t>
+  </si>
+  <si>
+    <t>Diagrama:</t>
+  </si>
+  <si>
+    <t>Set minim de teste = { 01100 - G1,J0,Z1; 11100 - F0,Z1}</t>
   </si>
 </sst>
 </file>
@@ -254,6 +260,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563090</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECA7C1C-DDC5-2F5D-ADB8-349538774325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="16240125"/>
+          <a:ext cx="7992590" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4F6D6F-F824-C575-D90B-DC9CE8E8EA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="295275" y="19907250"/>
+          <a:ext cx="18288000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7A6697-571A-0F4E-A918-DE0FC93C2A5E}">
-  <dimension ref="A1:AI78"/>
+  <dimension ref="A1:AI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7551,15 +7667,26 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/proiect/ProiectFDBargaoanuBogdan.xlsx
+++ b/proiect/ProiectFDBargaoanuBogdan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\facultate\fiabilitate si diagnoza\fiabilitate-si-diagnoza\proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558CDD3-4A30-4D2A-97C7-79BE3B3ABFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423EFC1D-CFEE-4CD1-BF8D-8833B13E9CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C0A6615-6D33-0742-B44C-E9D15E73AFBA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C0A6615-6D33-0742-B44C-E9D15E73AFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,23 +310,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4F6D6F-F824-C575-D90B-DC9CE8E8EA92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05227E84-2839-7763-67C2-A3AD6E4DD261}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,7 +349,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="295275" y="19907250"/>
+          <a:off x="323850" y="19802475"/>
           <a:ext cx="18288000" cy="10287000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7A6697-571A-0F4E-A918-DE0FC93C2A5E}">
   <dimension ref="A1:AI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5888,103 +5888,103 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
+      <c r="A56" s="2">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
         <v>0</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="2">
         <v>0</v>
       </c>
       <c r="AH56" s="3" t="s">

--- a/proiect/ProiectFDBargaoanuBogdan.xlsx
+++ b/proiect/ProiectFDBargaoanuBogdan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\facultate\fiabilitate si diagnoza\fiabilitate-si-diagnoza\proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423EFC1D-CFEE-4CD1-BF8D-8833B13E9CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DABAD4-0D2D-4194-9C4A-1ADC6D7FC5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C0A6615-6D33-0742-B44C-E9D15E73AFBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C0A6615-6D33-0742-B44C-E9D15E73AFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,6 +351,67 @@
         <a:xfrm>
           <a:off x="323850" y="19802475"/>
           <a:ext cx="18288000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA410392-881E-E31B-33C5-33BD0DB44F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="16421100"/>
+          <a:ext cx="4095750" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7A6697-571A-0F4E-A918-DE0FC93C2A5E}">
   <dimension ref="A1:AI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/proiect/ProiectFDBargaoanuBogdan.xlsx
+++ b/proiect/ProiectFDBargaoanuBogdan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\facultate\fiabilitate si diagnoza\fiabilitate-si-diagnoza\proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DABAD4-0D2D-4194-9C4A-1ADC6D7FC5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201655DB-FA13-48D0-882B-D102BE6CD2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C0A6615-6D33-0742-B44C-E9D15E73AFBA}"/>
   </bookViews>
@@ -372,22 +372,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA410392-881E-E31B-33C5-33BD0DB44F81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746ADA44-C0AB-E09C-D219-9E0BC61D2945}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,8 +410,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8496300" y="16421100"/>
-          <a:ext cx="4095750" cy="2495550"/>
+          <a:off x="8601074" y="16259625"/>
+          <a:ext cx="4695825" cy="2847523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:AI99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+      <selection activeCell="U88" sqref="U88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
